--- a/WordCount.xlsx
+++ b/WordCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\E4PRJ4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134E4B56-9435-413E-BF00-269570900AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531FE53-94FA-426D-B275-B7E228AB07B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4153" yWindow="4613" windowWidth="9600" windowHeight="5114" xr2:uid="{D1F3DF55-98B7-48C7-B9F1-A6F7ED450865}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{D1F3DF55-98B7-48C7-B9F1-A6F7ED450865}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Anslag</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">Afgrænsning </t>
-  </si>
-  <si>
-    <t>Kommentar:</t>
-  </si>
-  <si>
-    <t>Use Case fully - bilag???</t>
   </si>
   <si>
     <t>Krav u. afgrænsning og u. fully dressed</t>
@@ -167,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -292,11 +286,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -310,6 +324,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,19 +640,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B1F6F-B8AA-482D-9EAC-4676D95AEE5B}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="39.76171875" customWidth="1"/>
-    <col min="6" max="6" width="40.703125" customWidth="1"/>
+    <col min="7" max="7" width="18.46875" customWidth="1"/>
+    <col min="8" max="8" width="10.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -647,16 +664,13 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -664,13 +678,13 @@
         <v>190</v>
       </c>
       <c r="C2" s="2">
-        <f>B2/2400</f>
+        <f t="shared" ref="C2:C7" si="0">B2/2400</f>
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -678,44 +692,41 @@
         <v>3720</v>
       </c>
       <c r="C3" s="5">
-        <f>B3/2400</f>
+        <f t="shared" si="0"/>
         <v>1.55</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>6900</v>
       </c>
       <c r="C4" s="5">
-        <f>B4/2400</f>
+        <f t="shared" si="0"/>
         <v>2.875</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>6600</v>
       </c>
       <c r="C5" s="5">
-        <f>B5/2400</f>
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -723,21 +734,21 @@
         <v>810</v>
       </c>
       <c r="C6" s="5">
-        <f>B6/2400</f>
+        <f t="shared" si="0"/>
         <v>0.33750000000000002</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7">
         <v>200</v>
       </c>
       <c r="C7" s="8">
-        <f>B7/2400</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D7" s="8">
@@ -748,9 +759,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>770</v>
@@ -762,9 +773,9 @@
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>1900</v>
@@ -776,9 +787,9 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4">
         <v>2810</v>
@@ -790,9 +801,9 @@
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="7">
         <v>200</v>
@@ -809,9 +820,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>4961</v>
@@ -822,10 +833,16 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4">
         <v>4335</v>
@@ -836,10 +853,17 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <f>C26+C22+C18+C14+C10</f>
+        <v>8.6129166666666652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="7">
         <v>8890</v>
@@ -855,10 +879,26 @@
       <c r="E16" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <f>C11+C15+C19+C23+C27</f>
+        <v>7.305416666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <f>C11+C16+C20+C24+C28</f>
+        <v>10.879166666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>6450</v>
@@ -869,10 +909,17 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <f>C2+C3+C4+C5+C6+C7+C9+C30</f>
+        <v>9.3375000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4">
         <v>4560</v>
@@ -884,9 +931,9 @@
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7">
         <v>11300</v>
@@ -902,10 +949,18 @@
       <c r="E20" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="G20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="14">
+        <f>SUM(H15:H18)</f>
+        <v>36.134999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.5"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
         <v>3930</v>
@@ -917,9 +972,9 @@
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4">
         <v>2768</v>
@@ -931,9 +986,9 @@
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7">
         <v>3110</v>
@@ -950,9 +1005,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>3430</v>
@@ -964,9 +1019,9 @@
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>3060</v>
@@ -978,9 +1033,9 @@
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="7">
         <v>0</v>
@@ -997,9 +1052,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="10">
         <v>3220</v>
@@ -1014,59 +1069,6 @@
       </c>
       <c r="E30" s="12">
         <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33">
-        <f>C26+C22+C18+C14+C10</f>
-        <v>8.6129166666666652</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <f>C11+C15+C19+C23+C27</f>
-        <v>7.305416666666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <f>C11+C16+C20+C24+C28</f>
-        <v>10.879166666666666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <f>C2+C3+C4+C5+C6+C7+C9+C30</f>
-        <v>9.3375000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B33:B36)</f>
-        <v>36.134999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/WordCount.xlsx
+++ b/WordCount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\E4PRJ4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531FE53-94FA-426D-B275-B7E228AB07B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAEF2E4-4933-4CF7-A432-D366D1050EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{D1F3DF55-98B7-48C7-B9F1-A6F7ED450865}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14133" xr2:uid="{D1F3DF55-98B7-48C7-B9F1-A6F7ED450865}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
